--- a/feature/remove-examples-from-ressourcescasusages/ig/ValueSet-sas-valueset-typeidentifiant.xlsx
+++ b/feature/remove-examples-from-ressourcescasusages/ig/ValueSet-sas-valueset-typeidentifiant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-02T08:10:02+00:00</t>
+    <t>2024-09-02T09:11:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/remove-examples-from-ressourcescasusages/ig/ValueSet-sas-valueset-typeidentifiant.xlsx
+++ b/feature/remove-examples-from-ressourcescasusages/ig/ValueSet-sas-valueset-typeidentifiant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-02T09:11:29+00:00</t>
+    <t>2024-09-02T09:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
